--- a/Comparação Resultados Fluxos.xlsx
+++ b/Comparação Resultados Fluxos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smribei\Desktop\UFMG-20180924T133728Z-001\Mestrado\Artigo\Analise de Sentimento\TimeSeriesArticle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D443BB-4DF7-412B-861E-CEBD761DB59C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90031E1-C137-4D5D-A577-5E0F74847C2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18480" yWindow="2660" windowWidth="18160" windowHeight="10940" xr2:uid="{83A00F3E-C367-4969-88EF-98D6F3324460}"/>
+    <workbookView xWindow="2280" yWindow="2256" windowWidth="18156" windowHeight="10296" xr2:uid="{83A00F3E-C367-4969-88EF-98D6F3324460}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -215,6 +212,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +533,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A17" sqref="A17:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,316 +547,316 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.32173913043478197</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.32330827067669099</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.30303030303030298</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.60244648318042804</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.35087719298245601</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.375</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.39860139860139798</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.588607594936708</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.38461538461538403</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.31210191082802502</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.41293532338308397</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.51750972762645897</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0.59627329192546497</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>0.47136563876651899</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>0.60509554140127397</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.30645161290322498</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.33333333333333298</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.87128712871299996</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.296874999999999</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0.87096774193500004</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0.51750972762645897</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>0.59627329192546497</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>0.78301886792499997</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>0.72131147540999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.607250755287009</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.607250755287009</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.60843373493975905</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.61309523809523803</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.607250755287009</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.61609907120743002</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0.65124555160142295</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>0.61424332344213595</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>0.61194029850746201</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>0.61424332344213595</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>0.689393939393939</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>0.5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>0.35714285714285698</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>0.53846153846153799</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>0.76315789473684204</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>0.36538461538461497</v>
       </c>
     </row>

--- a/Comparação Resultados Fluxos.xlsx
+++ b/Comparação Resultados Fluxos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smribei\Desktop\UFMG-20180924T133728Z-001\Mestrado\Artigo\Analise de Sentimento\TimeSeriesArticle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90031E1-C137-4D5D-A577-5E0F74847C2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768611CB-8405-4040-928E-68762E34DFB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2256" windowWidth="18156" windowHeight="10296" xr2:uid="{83A00F3E-C367-4969-88EF-98D6F3324460}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{83A00F3E-C367-4969-88EF-98D6F3324460}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>FLUXO 1</t>
   </si>
@@ -82,13 +83,52 @@
   </si>
   <si>
     <t>FLUXO 3 - SVM</t>
+  </si>
+  <si>
+    <t>Dado\Método</t>
+  </si>
+  <si>
+    <t>Trend and Seasonal</t>
+  </si>
+  <si>
+    <t>Seasonal</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>White Noise</t>
+  </si>
+  <si>
+    <t>Forward Filling</t>
+  </si>
+  <si>
+    <t>Random Sample</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Spline Interpolation</t>
+  </si>
+  <si>
+    <t>Indicado Pela literatura</t>
+  </si>
+  <si>
+    <t>Melhor</t>
+  </si>
+  <si>
+    <t>Spline Iterpolation vai muito mal se o primeiro ou último pontos estão ausentes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +136,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -193,11 +278,226 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -213,9 +513,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,31 +896,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1F3DDA-5B96-414F-99E0-27FD9A790159}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -577,7 +941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -600,7 +964,7 @@
         <v>0.35087719298245601</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -623,7 +987,7 @@
         <v>0.31210191082802502</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -646,19 +1010,19 @@
         <v>0.60509554140127397</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
@@ -679,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -702,7 +1066,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -725,19 +1089,19 @@
         <v>0.72131147540999996</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>1</v>
@@ -758,7 +1122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -781,7 +1145,7 @@
         <v>0.61609907120743002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -804,19 +1168,19 @@
         <v>0.689393939393939</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>1</v>
@@ -837,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -870,4 +1234,267 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224F957F-58AE-451A-A547-0F21989E8E03}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="29">
+        <v>3.7287276901256998</v>
+      </c>
+      <c r="C2" s="18">
+        <v>12.381261070187399</v>
+      </c>
+      <c r="D2" s="18">
+        <v>160.11549728194899</v>
+      </c>
+      <c r="E2" s="33">
+        <v>2.4189473147159299</v>
+      </c>
+      <c r="F2" s="27">
+        <v>4.0325049830443502</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.33123815253410499</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0.63141284359772698</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0.31102590161691102</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.216960609160992</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.48434183869612801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="31">
+        <v>0.412078207498212</v>
+      </c>
+      <c r="C4" s="20">
+        <v>354.22773179654598</v>
+      </c>
+      <c r="D4" s="20">
+        <v>165.844502786741</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.237300818581302</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.51398080722687001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.34827473615715299</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.495934140565505</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.18473247953272801</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.21694788790891301</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.40693961014214602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="29">
+        <v>3.4837077426645799</v>
+      </c>
+      <c r="C9" s="18">
+        <v>8.5413235460591093</v>
+      </c>
+      <c r="D9" s="18">
+        <v>162.96639110000001</v>
+      </c>
+      <c r="E9" s="33">
+        <v>2.15173734564129</v>
+      </c>
+      <c r="F9" s="27">
+        <v>4.4415714646401403</v>
+      </c>
+      <c r="G9">
+        <v>3.9533051491758702</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="31">
+        <v>0.431213278026566</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1.0707477727188099</v>
+      </c>
+      <c r="D10" s="35">
+        <v>0.48187564975443098</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.22510155445810801</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1.1162160207757199</v>
+      </c>
+      <c r="G10">
+        <v>0.47597282306795702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="31">
+        <v>0.46210086202924999</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1.2862294294038701</v>
+      </c>
+      <c r="D11" s="20">
+        <v>171.28931409490801</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.25640573448694798</v>
+      </c>
+      <c r="F11" s="21">
+        <v>41.599729591911597</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0.47202224938276199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0.44127316510452902</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.42130377088597598</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.19780460371474901</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.25698350287819799</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.53834413122673397</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0.56921429309479699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G13" s="37"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>